--- a/biology/Botanique/Croton_muelleri/Croton_muelleri.xlsx
+++ b/biology/Botanique/Croton_muelleri/Croton_muelleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton muelleri est une espèce de plantes à fleurs du genre Croton et de la famille des Euphorbiaceae.
 Selon World Checklist of Selected Plant Families (WCSP) (site visté le 12 avril 2024), c'est un synonyme de Croton heptalon (Kuntze) B.W.van Ee &amp; P.E.Berry.
